--- a/datasets/state-budgets/assam/budget_head_categories.xlsx
+++ b/datasets/state-budgets/assam/budget_head_categories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apoor\projects\B4J\datasets\state-budgets\assam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FE6770-4676-4A58-A261-4BE6FA3C7020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56599B13-A972-415E-831C-95EAC912E8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{31C5AB6B-6D71-4C9D-9501-E141530E97CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{31C5AB6B-6D71-4C9D-9501-E141530E97CC}"/>
   </bookViews>
   <sheets>
     <sheet name="all-heads" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14381" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14381" uniqueCount="1376">
   <si>
     <t>budget_for</t>
   </si>
@@ -4159,6 +4159,18 @@
   </si>
   <si>
     <t>grant</t>
+  </si>
+  <si>
+    <t>civil and sessions court</t>
+  </si>
+  <si>
+    <t>high courts</t>
+  </si>
+  <si>
+    <t>criminal courts</t>
+  </si>
+  <si>
+    <t>legal advisers and counsels</t>
   </si>
 </sst>
 </file>
@@ -75692,11 +75704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527CE7E5-FE7A-400E-A979-1A4A69A5913C}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B441"/>
   <sheetViews>
-    <sheetView topLeftCell="A420" workbookViewId="0">
-      <selection sqref="A1:B441"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -75708,7 +75719,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>472</v>
       </c>
@@ -75716,7 +75727,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>475</v>
       </c>
@@ -75724,7 +75735,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>477</v>
       </c>
@@ -75732,7 +75743,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -75740,7 +75751,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>481</v>
       </c>
@@ -75748,7 +75759,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>483</v>
       </c>
@@ -75764,7 +75775,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>487</v>
       </c>
@@ -75772,7 +75783,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>489</v>
       </c>
@@ -75780,7 +75791,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>491</v>
       </c>
@@ -75788,7 +75799,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>493</v>
       </c>
@@ -75796,7 +75807,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>495</v>
       </c>
@@ -75804,7 +75815,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>497</v>
       </c>
@@ -75812,7 +75823,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>499</v>
       </c>
@@ -75820,7 +75831,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>501</v>
       </c>
@@ -75828,7 +75839,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>503</v>
       </c>
@@ -75876,7 +75887,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>515</v>
       </c>
@@ -75884,7 +75895,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>517</v>
       </c>
@@ -75892,7 +75903,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>519</v>
       </c>
@@ -75900,7 +75911,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>521</v>
       </c>
@@ -75908,7 +75919,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>523</v>
       </c>
@@ -75916,7 +75927,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>525</v>
       </c>
@@ -75924,7 +75935,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>527</v>
       </c>
@@ -75932,7 +75943,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>529</v>
       </c>
@@ -75940,7 +75951,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>531</v>
       </c>
@@ -75948,7 +75959,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>533</v>
       </c>
@@ -75956,7 +75967,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>535</v>
       </c>
@@ -75964,7 +75975,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>537</v>
       </c>
@@ -75972,7 +75983,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>539</v>
       </c>
@@ -75980,7 +75991,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>541</v>
       </c>
@@ -75988,7 +75999,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>543</v>
       </c>
@@ -75996,7 +76007,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>545</v>
       </c>
@@ -76004,7 +76015,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>547</v>
       </c>
@@ -76012,7 +76023,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>549</v>
       </c>
@@ -76020,7 +76031,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>551</v>
       </c>
@@ -76028,7 +76039,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>553</v>
       </c>
@@ -76244,7 +76255,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>607</v>
       </c>
@@ -76252,7 +76263,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>609</v>
       </c>
@@ -76260,7 +76271,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>611</v>
       </c>
@@ -76268,7 +76279,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>613</v>
       </c>
@@ -76276,7 +76287,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>615</v>
       </c>
@@ -76284,7 +76295,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>617</v>
       </c>
@@ -76292,7 +76303,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>619</v>
       </c>
@@ -76300,7 +76311,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>621</v>
       </c>
@@ -76308,7 +76319,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>623</v>
       </c>
@@ -76316,7 +76327,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>625</v>
       </c>
@@ -76324,7 +76335,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>627</v>
       </c>
@@ -76332,7 +76343,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>629</v>
       </c>
@@ -76340,7 +76351,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>631</v>
       </c>
@@ -76348,7 +76359,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>633</v>
       </c>
@@ -76356,7 +76367,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>635</v>
       </c>
@@ -76372,7 +76383,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>639</v>
       </c>
@@ -76380,7 +76391,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>641</v>
       </c>
@@ -76388,7 +76399,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>643</v>
       </c>
@@ -76396,7 +76407,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>645</v>
       </c>
@@ -76404,7 +76415,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>647</v>
       </c>
@@ -76412,7 +76423,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>649</v>
       </c>
@@ -76420,7 +76431,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>651</v>
       </c>
@@ -76428,7 +76439,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>653</v>
       </c>
@@ -76436,7 +76447,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>655</v>
       </c>
@@ -76444,7 +76455,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>657</v>
       </c>
@@ -76452,7 +76463,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>659</v>
       </c>
@@ -76460,7 +76471,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>661</v>
       </c>
@@ -76468,7 +76479,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>663</v>
       </c>
@@ -76476,7 +76487,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>665</v>
       </c>
@@ -76484,7 +76495,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>667</v>
       </c>
@@ -76492,7 +76503,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>669</v>
       </c>
@@ -76500,7 +76511,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>671</v>
       </c>
@@ -76508,7 +76519,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>673</v>
       </c>
@@ -76516,7 +76527,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>675</v>
       </c>
@@ -76524,7 +76535,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>677</v>
       </c>
@@ -76532,7 +76543,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>679</v>
       </c>
@@ -76540,7 +76551,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>681</v>
       </c>
@@ -76548,7 +76559,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>683</v>
       </c>
@@ -76556,7 +76567,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>685</v>
       </c>
@@ -76564,7 +76575,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>687</v>
       </c>
@@ -76572,7 +76583,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>689</v>
       </c>
@@ -76580,7 +76591,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>691</v>
       </c>
@@ -76588,7 +76599,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>693</v>
       </c>
@@ -76596,7 +76607,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>695</v>
       </c>
@@ -76604,7 +76615,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>697</v>
       </c>
@@ -76612,7 +76623,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>699</v>
       </c>
@@ -76620,7 +76631,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>701</v>
       </c>
@@ -76628,7 +76639,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>703</v>
       </c>
@@ -76636,7 +76647,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>705</v>
       </c>
@@ -76644,7 +76655,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>707</v>
       </c>
@@ -76652,7 +76663,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>709</v>
       </c>
@@ -76660,7 +76671,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>711</v>
       </c>
@@ -76668,7 +76679,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>713</v>
       </c>
@@ -76676,7 +76687,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>715</v>
       </c>
@@ -76684,7 +76695,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>717</v>
       </c>
@@ -76692,7 +76703,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>719</v>
       </c>
@@ -76700,7 +76711,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>721</v>
       </c>
@@ -76708,7 +76719,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>723</v>
       </c>
@@ -76716,7 +76727,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>725</v>
       </c>
@@ -76724,7 +76735,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>727</v>
       </c>
@@ -76732,7 +76743,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>729</v>
       </c>
@@ -76740,7 +76751,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>731</v>
       </c>
@@ -76748,7 +76759,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>733</v>
       </c>
@@ -76756,7 +76767,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>735</v>
       </c>
@@ -76764,7 +76775,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>737</v>
       </c>
@@ -76772,7 +76783,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>739</v>
       </c>
@@ -76780,7 +76791,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>741</v>
       </c>
@@ -76788,7 +76799,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>743</v>
       </c>
@@ -76796,7 +76807,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>745</v>
       </c>
@@ -76804,7 +76815,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>747</v>
       </c>
@@ -76812,7 +76823,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>749</v>
       </c>
@@ -76820,7 +76831,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>751</v>
       </c>
@@ -76828,7 +76839,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>753</v>
       </c>
@@ -76836,7 +76847,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>755</v>
       </c>
@@ -76844,7 +76855,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>757</v>
       </c>
@@ -76852,7 +76863,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>759</v>
       </c>
@@ -76860,7 +76871,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>761</v>
       </c>
@@ -76868,7 +76879,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>763</v>
       </c>
@@ -76876,7 +76887,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>765</v>
       </c>
@@ -76884,7 +76895,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>767</v>
       </c>
@@ -76892,7 +76903,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>769</v>
       </c>
@@ -76900,7 +76911,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>771</v>
       </c>
@@ -76908,7 +76919,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>773</v>
       </c>
@@ -76916,7 +76927,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>775</v>
       </c>
@@ -76924,7 +76935,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>777</v>
       </c>
@@ -76932,7 +76943,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>779</v>
       </c>
@@ -76940,7 +76951,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>781</v>
       </c>
@@ -76948,7 +76959,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>783</v>
       </c>
@@ -76956,7 +76967,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>785</v>
       </c>
@@ -76964,7 +76975,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>787</v>
       </c>
@@ -76972,7 +76983,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>789</v>
       </c>
@@ -76980,7 +76991,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>791</v>
       </c>
@@ -76988,7 +76999,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>793</v>
       </c>
@@ -76996,7 +77007,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>795</v>
       </c>
@@ -77004,7 +77015,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>797</v>
       </c>
@@ -77500,7 +77511,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>927</v>
       </c>
@@ -77508,7 +77519,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1269</v>
       </c>
@@ -77516,7 +77527,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1025</v>
       </c>
@@ -77524,7 +77535,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>923</v>
       </c>
@@ -77532,7 +77543,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>929</v>
       </c>
@@ -77540,7 +77551,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>931</v>
       </c>
@@ -77548,7 +77559,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>933</v>
       </c>
@@ -77556,7 +77567,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>935</v>
       </c>
@@ -77564,7 +77575,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>937</v>
       </c>
@@ -77572,7 +77583,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>939</v>
       </c>
@@ -77580,7 +77591,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>941</v>
       </c>
@@ -77588,7 +77599,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>943</v>
       </c>
@@ -77596,7 +77607,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>945</v>
       </c>
@@ -77604,7 +77615,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>947</v>
       </c>
@@ -77612,7 +77623,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>949</v>
       </c>
@@ -77620,7 +77631,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>951</v>
       </c>
@@ -77628,7 +77639,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>953</v>
       </c>
@@ -77636,7 +77647,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>955</v>
       </c>
@@ -77644,7 +77655,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>957</v>
       </c>
@@ -77652,7 +77663,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>959</v>
       </c>
@@ -77660,7 +77671,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>961</v>
       </c>
@@ -77668,7 +77679,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>963</v>
       </c>
@@ -77676,7 +77687,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>965</v>
       </c>
@@ -77684,7 +77695,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>967</v>
       </c>
@@ -77692,7 +77703,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>969</v>
       </c>
@@ -77700,7 +77711,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>971</v>
       </c>
@@ -77708,7 +77719,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>973</v>
       </c>
@@ -77716,7 +77727,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>975</v>
       </c>
@@ -77724,7 +77735,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>977</v>
       </c>
@@ -77732,7 +77743,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>979</v>
       </c>
@@ -77740,7 +77751,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>981</v>
       </c>
@@ -77748,7 +77759,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>983</v>
       </c>
@@ -77756,7 +77767,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>985</v>
       </c>
@@ -77764,7 +77775,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>987</v>
       </c>
@@ -77772,7 +77783,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>989</v>
       </c>
@@ -77780,7 +77791,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>991</v>
       </c>
@@ -77788,7 +77799,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>993</v>
       </c>
@@ -77796,7 +77807,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>995</v>
       </c>
@@ -77804,7 +77815,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>997</v>
       </c>
@@ -77812,7 +77823,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>999</v>
       </c>
@@ -77820,7 +77831,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1001</v>
       </c>
@@ -77828,7 +77839,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1003</v>
       </c>
@@ -77836,7 +77847,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1005</v>
       </c>
@@ -77852,7 +77863,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1009</v>
       </c>
@@ -77860,7 +77871,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1011</v>
       </c>
@@ -77868,7 +77879,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1013</v>
       </c>
@@ -77876,7 +77887,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1015</v>
       </c>
@@ -77884,7 +77895,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1017</v>
       </c>
@@ -77892,7 +77903,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1019</v>
       </c>
@@ -77900,7 +77911,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1021</v>
       </c>
@@ -77908,7 +77919,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1023</v>
       </c>
@@ -77916,7 +77927,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1105</v>
       </c>
@@ -77924,7 +77935,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1027</v>
       </c>
@@ -77932,7 +77943,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1029</v>
       </c>
@@ -77940,7 +77951,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1031</v>
       </c>
@@ -77948,7 +77959,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1033</v>
       </c>
@@ -77956,7 +77967,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1035</v>
       </c>
@@ -77964,7 +77975,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1037</v>
       </c>
@@ -77980,7 +77991,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1041</v>
       </c>
@@ -77988,7 +77999,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1043</v>
       </c>
@@ -77996,7 +78007,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1045</v>
       </c>
@@ -78004,7 +78015,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1047</v>
       </c>
@@ -78036,7 +78047,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1055</v>
       </c>
@@ -78044,7 +78055,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1057</v>
       </c>
@@ -78052,7 +78063,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1059</v>
       </c>
@@ -78060,7 +78071,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1061</v>
       </c>
@@ -78068,7 +78079,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1063</v>
       </c>
@@ -78076,7 +78087,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1065</v>
       </c>
@@ -78084,7 +78095,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1067</v>
       </c>
@@ -78092,7 +78103,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1069</v>
       </c>
@@ -78100,7 +78111,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1071</v>
       </c>
@@ -78108,7 +78119,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1073</v>
       </c>
@@ -78124,7 +78135,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1077</v>
       </c>
@@ -78140,7 +78151,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1081</v>
       </c>
@@ -78148,7 +78159,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1083</v>
       </c>
@@ -78156,7 +78167,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1085</v>
       </c>
@@ -78164,7 +78175,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1087</v>
       </c>
@@ -78180,7 +78191,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1091</v>
       </c>
@@ -78188,7 +78199,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1093</v>
       </c>
@@ -78196,7 +78207,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1095</v>
       </c>
@@ -78204,7 +78215,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1097</v>
       </c>
@@ -78212,7 +78223,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1099</v>
       </c>
@@ -78220,7 +78231,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1101</v>
       </c>
@@ -78228,7 +78239,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1103</v>
       </c>
@@ -78236,7 +78247,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1259</v>
       </c>
@@ -78244,7 +78255,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1107</v>
       </c>
@@ -78252,7 +78263,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1109</v>
       </c>
@@ -78268,7 +78279,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1113</v>
       </c>
@@ -78276,7 +78287,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1115</v>
       </c>
@@ -78292,7 +78303,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1119</v>
       </c>
@@ -78300,7 +78311,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1121</v>
       </c>
@@ -78308,7 +78319,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1123</v>
       </c>
@@ -78316,7 +78327,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1125</v>
       </c>
@@ -78332,7 +78343,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1129</v>
       </c>
@@ -78340,7 +78351,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1131</v>
       </c>
@@ -78348,7 +78359,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1133</v>
       </c>
@@ -78372,7 +78383,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1139</v>
       </c>
@@ -78380,7 +78391,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1141</v>
       </c>
@@ -78388,7 +78399,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1143</v>
       </c>
@@ -78396,7 +78407,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1145</v>
       </c>
@@ -78420,7 +78431,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1151</v>
       </c>
@@ -78428,7 +78439,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1153</v>
       </c>
@@ -78436,7 +78447,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1155</v>
       </c>
@@ -78444,7 +78455,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1157</v>
       </c>
@@ -78452,7 +78463,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1159</v>
       </c>
@@ -78460,7 +78471,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1161</v>
       </c>
@@ -78468,7 +78479,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1163</v>
       </c>
@@ -78476,7 +78487,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1165</v>
       </c>
@@ -78484,7 +78495,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1167</v>
       </c>
@@ -78492,7 +78503,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1169</v>
       </c>
@@ -78500,7 +78511,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1171</v>
       </c>
@@ -78508,7 +78519,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1173</v>
       </c>
@@ -78516,7 +78527,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1175</v>
       </c>
@@ -78524,7 +78535,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1177</v>
       </c>
@@ -78532,7 +78543,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1179</v>
       </c>
@@ -78540,7 +78551,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1181</v>
       </c>
@@ -78548,7 +78559,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1183</v>
       </c>
@@ -78564,7 +78575,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1187</v>
       </c>
@@ -78572,7 +78583,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1189</v>
       </c>
@@ -78580,7 +78591,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1191</v>
       </c>
@@ -78604,7 +78615,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1197</v>
       </c>
@@ -78612,7 +78623,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1199</v>
       </c>
@@ -78620,7 +78631,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1201</v>
       </c>
@@ -78636,7 +78647,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1205</v>
       </c>
@@ -78644,7 +78655,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1207</v>
       </c>
@@ -78652,7 +78663,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1209</v>
       </c>
@@ -78660,7 +78671,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1211</v>
       </c>
@@ -78700,7 +78711,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1221</v>
       </c>
@@ -78708,7 +78719,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1223</v>
       </c>
@@ -78716,7 +78727,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1225</v>
       </c>
@@ -78724,7 +78735,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>925</v>
       </c>
@@ -78756,7 +78767,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1235</v>
       </c>
@@ -78764,7 +78775,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1237</v>
       </c>
@@ -78772,7 +78783,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1239</v>
       </c>
@@ -78780,7 +78791,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1241</v>
       </c>
@@ -78788,7 +78799,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1243</v>
       </c>
@@ -78796,7 +78807,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1245</v>
       </c>
@@ -78828,7 +78839,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1253</v>
       </c>
@@ -78836,7 +78847,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1255</v>
       </c>
@@ -78852,7 +78863,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>921</v>
       </c>
@@ -78860,7 +78871,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1261</v>
       </c>
@@ -78868,7 +78879,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1263</v>
       </c>
@@ -78876,7 +78887,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1265</v>
       </c>
@@ -78884,7 +78895,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1267</v>
       </c>
@@ -78892,7 +78903,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1227</v>
       </c>
@@ -78900,7 +78911,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1271</v>
       </c>
@@ -78908,7 +78919,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1273</v>
       </c>
@@ -78916,7 +78927,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1275</v>
       </c>
@@ -78924,7 +78935,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1277</v>
       </c>
@@ -78932,7 +78943,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1279</v>
       </c>
@@ -78940,7 +78951,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1281</v>
       </c>
@@ -78948,7 +78959,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1283</v>
       </c>
@@ -78956,7 +78967,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1285</v>
       </c>
@@ -78964,7 +78975,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1287</v>
       </c>
@@ -78972,7 +78983,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1289</v>
       </c>
@@ -78980,7 +78991,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1291</v>
       </c>
@@ -78988,7 +78999,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1293</v>
       </c>
@@ -78996,7 +79007,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1295</v>
       </c>
@@ -79004,7 +79015,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1297</v>
       </c>
@@ -79044,7 +79055,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1307</v>
       </c>
@@ -79052,7 +79063,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1309</v>
       </c>
@@ -79060,7 +79071,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1311</v>
       </c>
@@ -79068,7 +79079,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1313</v>
       </c>
@@ -79076,7 +79087,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1315</v>
       </c>
@@ -79084,7 +79095,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1317</v>
       </c>
@@ -79092,7 +79103,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1319</v>
       </c>
@@ -79100,7 +79111,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1321</v>
       </c>
@@ -79108,7 +79119,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1323</v>
       </c>
@@ -79116,7 +79127,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1325</v>
       </c>
@@ -79124,7 +79135,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1327</v>
       </c>
@@ -79132,7 +79143,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1329</v>
       </c>
@@ -79140,7 +79151,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1331</v>
       </c>
@@ -79148,7 +79159,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1333</v>
       </c>
@@ -79156,7 +79167,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1335</v>
       </c>
@@ -79164,7 +79175,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1337</v>
       </c>
@@ -79172,7 +79183,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1339</v>
       </c>
@@ -79180,7 +79191,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1341</v>
       </c>
@@ -79188,7 +79199,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1343</v>
       </c>
@@ -79196,7 +79207,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1345</v>
       </c>
@@ -79204,7 +79215,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1347</v>
       </c>
@@ -79212,7 +79223,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1349</v>
       </c>
@@ -79220,7 +79231,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1351</v>
       </c>
@@ -79229,6 +79240,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B441" xr:uid="{527CE7E5-FE7A-400E-A979-1A4A69A5913C}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="district police"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -79237,8 +79255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E44EC0-BB18-4FB1-B019-CFA10F688846}">
   <dimension ref="A1:B175"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B175"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79248,7 +79266,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -79296,7 +79314,7 @@
         <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -79304,7 +79322,7 @@
         <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -79312,7 +79330,7 @@
         <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -79360,7 +79378,7 @@
         <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -79408,7 +79426,7 @@
         <v>175</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -79416,7 +79434,7 @@
         <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -79424,7 +79442,7 @@
         <v>179</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -79432,7 +79450,7 @@
         <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -79440,7 +79458,7 @@
         <v>183</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -79448,7 +79466,7 @@
         <v>185</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -79456,7 +79474,7 @@
         <v>187</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -79464,7 +79482,7 @@
         <v>189</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -79472,7 +79490,7 @@
         <v>191</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -79480,7 +79498,7 @@
         <v>193</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -79488,7 +79506,7 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -79496,7 +79514,7 @@
         <v>197</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -79504,7 +79522,7 @@
         <v>199</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -79512,7 +79530,7 @@
         <v>201</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -79520,7 +79538,7 @@
         <v>203</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -79528,7 +79546,7 @@
         <v>205</v>
       </c>
       <c r="B36" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -79536,7 +79554,7 @@
         <v>207</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -79544,7 +79562,7 @@
         <v>209</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -79552,7 +79570,7 @@
         <v>211</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -79560,7 +79578,7 @@
         <v>213</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -79680,7 +79698,7 @@
         <v>237</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -79688,7 +79706,7 @@
         <v>239</v>
       </c>
       <c r="B56" t="s">
-        <v>147</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -79696,7 +79714,7 @@
         <v>241</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -79704,7 +79722,7 @@
         <v>243</v>
       </c>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -79712,7 +79730,7 @@
         <v>245</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -79720,7 +79738,7 @@
         <v>247</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -79728,7 +79746,7 @@
         <v>249</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -79736,7 +79754,7 @@
         <v>251</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -79744,7 +79762,7 @@
         <v>253</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -79752,7 +79770,7 @@
         <v>255</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -79760,7 +79778,7 @@
         <v>257</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -79768,7 +79786,7 @@
         <v>259</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -79776,7 +79794,7 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -79784,7 +79802,7 @@
         <v>263</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -79792,7 +79810,7 @@
         <v>265</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -79800,7 +79818,7 @@
         <v>267</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -79808,7 +79826,7 @@
         <v>269</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -79816,7 +79834,7 @@
         <v>271</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -79824,7 +79842,7 @@
         <v>273</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -79832,7 +79850,7 @@
         <v>275</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -79840,7 +79858,7 @@
         <v>277</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -79848,7 +79866,7 @@
         <v>279</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -79856,7 +79874,7 @@
         <v>281</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -79864,7 +79882,7 @@
         <v>283</v>
       </c>
       <c r="B78" t="s">
-        <v>147</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -79872,7 +79890,7 @@
         <v>285</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -79880,7 +79898,7 @@
         <v>287</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -79888,7 +79906,7 @@
         <v>289</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -79896,7 +79914,7 @@
         <v>291</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -79904,7 +79922,7 @@
         <v>293</v>
       </c>
       <c r="B83" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -79912,7 +79930,7 @@
         <v>295</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -79920,7 +79938,7 @@
         <v>297</v>
       </c>
       <c r="B85" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -79928,7 +79946,7 @@
         <v>299</v>
       </c>
       <c r="B86" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -79936,7 +79954,7 @@
         <v>301</v>
       </c>
       <c r="B87" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -79944,7 +79962,7 @@
         <v>303</v>
       </c>
       <c r="B88" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -79952,7 +79970,7 @@
         <v>305</v>
       </c>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -79960,7 +79978,7 @@
         <v>307</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -79968,7 +79986,7 @@
         <v>309</v>
       </c>
       <c r="B91" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -79976,7 +79994,7 @@
         <v>311</v>
       </c>
       <c r="B92" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -79984,7 +80002,7 @@
         <v>313</v>
       </c>
       <c r="B93" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -79992,7 +80010,7 @@
         <v>315</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -80000,7 +80018,7 @@
         <v>317</v>
       </c>
       <c r="B95" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -80008,7 +80026,7 @@
         <v>319</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -80016,7 +80034,7 @@
         <v>321</v>
       </c>
       <c r="B97" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -80024,7 +80042,7 @@
         <v>323</v>
       </c>
       <c r="B98" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -80032,7 +80050,7 @@
         <v>325</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -80040,7 +80058,7 @@
         <v>327</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -80048,7 +80066,7 @@
         <v>329</v>
       </c>
       <c r="B101" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -80056,7 +80074,7 @@
         <v>331</v>
       </c>
       <c r="B102" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -80064,7 +80082,7 @@
         <v>333</v>
       </c>
       <c r="B103" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -80072,7 +80090,7 @@
         <v>335</v>
       </c>
       <c r="B104" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -80080,7 +80098,7 @@
         <v>337</v>
       </c>
       <c r="B105" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -80088,7 +80106,7 @@
         <v>339</v>
       </c>
       <c r="B106" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -80096,7 +80114,7 @@
         <v>341</v>
       </c>
       <c r="B107" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -80104,7 +80122,7 @@
         <v>343</v>
       </c>
       <c r="B108" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -80112,7 +80130,7 @@
         <v>345</v>
       </c>
       <c r="B109" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -80120,7 +80138,7 @@
         <v>347</v>
       </c>
       <c r="B110" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -80128,7 +80146,7 @@
         <v>349</v>
       </c>
       <c r="B111" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -80136,7 +80154,7 @@
         <v>351</v>
       </c>
       <c r="B112" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -80144,7 +80162,7 @@
         <v>353</v>
       </c>
       <c r="B113" t="s">
-        <v>147</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -80152,7 +80170,7 @@
         <v>355</v>
       </c>
       <c r="B114" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -80160,7 +80178,7 @@
         <v>357</v>
       </c>
       <c r="B115" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -80168,7 +80186,7 @@
         <v>359</v>
       </c>
       <c r="B116" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -80176,7 +80194,7 @@
         <v>361</v>
       </c>
       <c r="B117" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -80184,7 +80202,7 @@
         <v>363</v>
       </c>
       <c r="B118" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -80192,7 +80210,7 @@
         <v>365</v>
       </c>
       <c r="B119" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -80200,7 +80218,7 @@
         <v>367</v>
       </c>
       <c r="B120" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -80208,7 +80226,7 @@
         <v>369</v>
       </c>
       <c r="B121" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -80216,7 +80234,7 @@
         <v>371</v>
       </c>
       <c r="B122" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -80224,7 +80242,7 @@
         <v>373</v>
       </c>
       <c r="B123" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -80232,7 +80250,7 @@
         <v>375</v>
       </c>
       <c r="B124" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -80240,7 +80258,7 @@
         <v>377</v>
       </c>
       <c r="B125" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -80248,7 +80266,7 @@
         <v>379</v>
       </c>
       <c r="B126" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -80256,7 +80274,7 @@
         <v>381</v>
       </c>
       <c r="B127" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -80264,7 +80282,7 @@
         <v>383</v>
       </c>
       <c r="B128" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -80272,7 +80290,7 @@
         <v>385</v>
       </c>
       <c r="B129" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -80280,7 +80298,7 @@
         <v>387</v>
       </c>
       <c r="B130" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -80288,7 +80306,7 @@
         <v>389</v>
       </c>
       <c r="B131" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -80296,7 +80314,7 @@
         <v>391</v>
       </c>
       <c r="B132" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -80304,7 +80322,7 @@
         <v>393</v>
       </c>
       <c r="B133" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -80312,7 +80330,7 @@
         <v>395</v>
       </c>
       <c r="B134" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -80320,7 +80338,7 @@
         <v>397</v>
       </c>
       <c r="B135" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -80328,7 +80346,7 @@
         <v>399</v>
       </c>
       <c r="B136" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -80336,7 +80354,7 @@
         <v>401</v>
       </c>
       <c r="B137" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -80344,7 +80362,7 @@
         <v>403</v>
       </c>
       <c r="B138" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -80352,7 +80370,7 @@
         <v>405</v>
       </c>
       <c r="B139" t="s">
-        <v>147</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -80644,6 +80662,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B175" xr:uid="{E1E44EC0-BB18-4FB1-B019-CFA10F688846}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -80652,9 +80671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F4B16A-C1D1-423A-A48A-BD4EBDEBBCAD}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B71"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -81235,7 +81252,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29E2ADA-D2C4-4B21-B3D1-F085DEAD179F}">
   <dimension ref="A1:C685"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/datasets/state-budgets/assam/budget_head_categories.xlsx
+++ b/datasets/state-budgets/assam/budget_head_categories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apoor\projects\B4J\datasets\state-budgets\assam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56599B13-A972-415E-831C-95EAC912E8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40037C6E-57D2-42AC-BCBC-B50568DA24CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{31C5AB6B-6D71-4C9D-9501-E141530E97CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{31C5AB6B-6D71-4C9D-9501-E141530E97CC}"/>
   </bookViews>
   <sheets>
     <sheet name="all-heads" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14381" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14381" uniqueCount="1400">
   <si>
     <t>budget_for</t>
   </si>
@@ -4171,6 +4171,78 @@
   </si>
   <si>
     <t>legal advisers and counsels</t>
+  </si>
+  <si>
+    <t>criminal investigation and vigilance - special branch</t>
+  </si>
+  <si>
+    <t>criminal investigation and vigilance - anti-corruption branch</t>
+  </si>
+  <si>
+    <t>district police - river police</t>
+  </si>
+  <si>
+    <t>district police - women police</t>
+  </si>
+  <si>
+    <t>district police - checking of bangladeshi infiltration</t>
+  </si>
+  <si>
+    <t>district police - establishment of watch post schemes</t>
+  </si>
+  <si>
+    <t>district police - guards</t>
+  </si>
+  <si>
+    <t>district police - police, passport &amp; visa system</t>
+  </si>
+  <si>
+    <t>district police - thumb, finger &amp; photo.schemes</t>
+  </si>
+  <si>
+    <t>district police - district police proper</t>
+  </si>
+  <si>
+    <t>district police - general security related expenditure</t>
+  </si>
+  <si>
+    <t>other expenditure - relief operation in connection with disturbances</t>
+  </si>
+  <si>
+    <t>other expenditure - new indian reserve battalions</t>
+  </si>
+  <si>
+    <t>education and training - armed police training centre</t>
+  </si>
+  <si>
+    <t>education and training - battalion training centre</t>
+  </si>
+  <si>
+    <t>legal advisers and counsels - counsel for supreme court</t>
+  </si>
+  <si>
+    <t>legal advisers and counsels - public prosecutor</t>
+  </si>
+  <si>
+    <t>legal advisers and counsels - government pleader</t>
+  </si>
+  <si>
+    <t>labour and employment - industrial tribunal</t>
+  </si>
+  <si>
+    <t>labour and employment - labour court</t>
+  </si>
+  <si>
+    <t>other expenditure - legal aid to the poor</t>
+  </si>
+  <si>
+    <t>other expenditure -law commission</t>
+  </si>
+  <si>
+    <t>other expenditure - translation of central laws</t>
+  </si>
+  <si>
+    <t>other expenditure - judicial academy, assam</t>
   </si>
 </sst>
 </file>
@@ -75704,12 +75776,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527CE7E5-FE7A-400E-A979-1A4A69A5913C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:B441"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -75719,7 +75796,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>472</v>
       </c>
@@ -75727,7 +75804,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>475</v>
       </c>
@@ -75735,7 +75812,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>477</v>
       </c>
@@ -75743,7 +75820,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -75751,7 +75828,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>481</v>
       </c>
@@ -75759,7 +75836,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>483</v>
       </c>
@@ -75775,7 +75852,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>487</v>
       </c>
@@ -75783,7 +75860,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>489</v>
       </c>
@@ -75791,7 +75868,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>491</v>
       </c>
@@ -75799,7 +75876,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>493</v>
       </c>
@@ -75807,7 +75884,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>495</v>
       </c>
@@ -75815,7 +75892,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>497</v>
       </c>
@@ -75823,7 +75900,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>499</v>
       </c>
@@ -75831,7 +75908,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>501</v>
       </c>
@@ -75839,7 +75916,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>503</v>
       </c>
@@ -75852,7 +75929,7 @@
         <v>505</v>
       </c>
       <c r="B18" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -75860,7 +75937,7 @@
         <v>507</v>
       </c>
       <c r="B19" t="s">
-        <v>1361</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -75868,7 +75945,7 @@
         <v>509</v>
       </c>
       <c r="B20" t="s">
-        <v>1361</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -75876,7 +75953,7 @@
         <v>511</v>
       </c>
       <c r="B21" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -75884,18 +75961,18 @@
         <v>513</v>
       </c>
       <c r="B22" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>515</v>
       </c>
       <c r="B23" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>517</v>
       </c>
@@ -75903,7 +75980,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>519</v>
       </c>
@@ -75911,7 +75988,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>521</v>
       </c>
@@ -75919,7 +75996,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>523</v>
       </c>
@@ -75927,7 +76004,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>525</v>
       </c>
@@ -75935,7 +76012,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>527</v>
       </c>
@@ -75943,7 +76020,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>529</v>
       </c>
@@ -75951,7 +76028,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>531</v>
       </c>
@@ -75959,7 +76036,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>533</v>
       </c>
@@ -75967,15 +76044,15 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>535</v>
       </c>
       <c r="B33" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>537</v>
       </c>
@@ -75983,15 +76060,15 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>539</v>
       </c>
       <c r="B35" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>541</v>
       </c>
@@ -75999,7 +76076,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>543</v>
       </c>
@@ -76007,23 +76084,23 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>545</v>
       </c>
       <c r="B38" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>547</v>
       </c>
       <c r="B39" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>549</v>
       </c>
@@ -76031,7 +76108,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>551</v>
       </c>
@@ -76039,7 +76116,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>553</v>
       </c>
@@ -76052,7 +76129,7 @@
         <v>555</v>
       </c>
       <c r="B43" t="s">
-        <v>1361</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -76060,7 +76137,7 @@
         <v>557</v>
       </c>
       <c r="B44" t="s">
-        <v>1361</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -76116,7 +76193,7 @@
         <v>571</v>
       </c>
       <c r="B51" t="s">
-        <v>1361</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -76132,7 +76209,7 @@
         <v>575</v>
       </c>
       <c r="B53" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -76140,7 +76217,7 @@
         <v>577</v>
       </c>
       <c r="B54" t="s">
-        <v>1361</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -76148,7 +76225,7 @@
         <v>579</v>
       </c>
       <c r="B55" t="s">
-        <v>1361</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -76156,7 +76233,7 @@
         <v>581</v>
       </c>
       <c r="B56" t="s">
-        <v>1361</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -76164,7 +76241,7 @@
         <v>583</v>
       </c>
       <c r="B57" t="s">
-        <v>1361</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -76172,7 +76249,7 @@
         <v>585</v>
       </c>
       <c r="B58" t="s">
-        <v>1361</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -76180,7 +76257,7 @@
         <v>587</v>
       </c>
       <c r="B59" t="s">
-        <v>1361</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -76188,7 +76265,7 @@
         <v>589</v>
       </c>
       <c r="B60" t="s">
-        <v>1361</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -76196,7 +76273,7 @@
         <v>591</v>
       </c>
       <c r="B61" t="s">
-        <v>1361</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -76212,7 +76289,7 @@
         <v>595</v>
       </c>
       <c r="B63" t="s">
-        <v>1361</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -76236,7 +76313,7 @@
         <v>601</v>
       </c>
       <c r="B66" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -76244,7 +76321,7 @@
         <v>603</v>
       </c>
       <c r="B67" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -76252,10 +76329,10 @@
         <v>605</v>
       </c>
       <c r="B68" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>607</v>
       </c>
@@ -76263,7 +76340,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>609</v>
       </c>
@@ -76271,7 +76348,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>611</v>
       </c>
@@ -76279,7 +76356,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>613</v>
       </c>
@@ -76287,7 +76364,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>615</v>
       </c>
@@ -76295,7 +76372,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>617</v>
       </c>
@@ -76303,7 +76380,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>619</v>
       </c>
@@ -76311,7 +76388,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>621</v>
       </c>
@@ -76319,39 +76396,39 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>623</v>
       </c>
       <c r="B77" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>625</v>
       </c>
       <c r="B78" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>627</v>
       </c>
       <c r="B79" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>629</v>
       </c>
       <c r="B80" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>631</v>
       </c>
@@ -76359,7 +76436,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>633</v>
       </c>
@@ -76367,7 +76444,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>635</v>
       </c>
@@ -76383,7 +76460,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>639</v>
       </c>
@@ -76391,7 +76468,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>641</v>
       </c>
@@ -76399,7 +76476,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>643</v>
       </c>
@@ -76407,7 +76484,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>645</v>
       </c>
@@ -76415,7 +76492,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>647</v>
       </c>
@@ -76423,7 +76500,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>649</v>
       </c>
@@ -76431,15 +76508,15 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>651</v>
       </c>
       <c r="B91" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>653</v>
       </c>
@@ -76447,7 +76524,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>655</v>
       </c>
@@ -76455,7 +76532,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>657</v>
       </c>
@@ -76463,7 +76540,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>659</v>
       </c>
@@ -76471,7 +76548,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>661</v>
       </c>
@@ -76479,7 +76556,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>663</v>
       </c>
@@ -76487,7 +76564,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>665</v>
       </c>
@@ -76495,7 +76572,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>667</v>
       </c>
@@ -76503,7 +76580,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>669</v>
       </c>
@@ -76511,7 +76588,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>671</v>
       </c>
@@ -76519,7 +76596,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>673</v>
       </c>
@@ -76527,7 +76604,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>675</v>
       </c>
@@ -76535,7 +76612,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>677</v>
       </c>
@@ -76543,7 +76620,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>679</v>
       </c>
@@ -76551,7 +76628,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>681</v>
       </c>
@@ -76559,7 +76636,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>683</v>
       </c>
@@ -76567,7 +76644,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>685</v>
       </c>
@@ -76575,7 +76652,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>687</v>
       </c>
@@ -76583,7 +76660,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>689</v>
       </c>
@@ -76591,7 +76668,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>691</v>
       </c>
@@ -76599,7 +76676,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>693</v>
       </c>
@@ -76607,7 +76684,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>695</v>
       </c>
@@ -76615,7 +76692,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>697</v>
       </c>
@@ -76623,7 +76700,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>699</v>
       </c>
@@ -76631,7 +76708,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>701</v>
       </c>
@@ -76639,7 +76716,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>703</v>
       </c>
@@ -76647,7 +76724,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>705</v>
       </c>
@@ -76655,7 +76732,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>707</v>
       </c>
@@ -76663,7 +76740,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>709</v>
       </c>
@@ -76671,7 +76748,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>711</v>
       </c>
@@ -76679,7 +76756,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>713</v>
       </c>
@@ -76687,7 +76764,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>715</v>
       </c>
@@ -76695,7 +76772,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>717</v>
       </c>
@@ -76703,7 +76780,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>719</v>
       </c>
@@ -76711,7 +76788,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>721</v>
       </c>
@@ -76719,7 +76796,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>723</v>
       </c>
@@ -76727,7 +76804,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>725</v>
       </c>
@@ -76735,7 +76812,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>727</v>
       </c>
@@ -76743,7 +76820,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>729</v>
       </c>
@@ -76751,7 +76828,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>731</v>
       </c>
@@ -76759,7 +76836,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>733</v>
       </c>
@@ -76767,7 +76844,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>735</v>
       </c>
@@ -76775,39 +76852,39 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>737</v>
       </c>
       <c r="B134" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>739</v>
       </c>
       <c r="B135" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>741</v>
       </c>
       <c r="B136" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>743</v>
       </c>
       <c r="B137" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>745</v>
       </c>
@@ -76815,7 +76892,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>747</v>
       </c>
@@ -76823,7 +76900,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>749</v>
       </c>
@@ -76831,7 +76908,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>751</v>
       </c>
@@ -76839,39 +76916,39 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>753</v>
       </c>
       <c r="B142" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>755</v>
       </c>
       <c r="B143" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>757</v>
       </c>
       <c r="B144" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>759</v>
       </c>
       <c r="B145" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>761</v>
       </c>
@@ -76879,7 +76956,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>763</v>
       </c>
@@ -76887,7 +76964,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>765</v>
       </c>
@@ -76895,7 +76972,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>767</v>
       </c>
@@ -76903,7 +76980,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>769</v>
       </c>
@@ -76911,7 +76988,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>771</v>
       </c>
@@ -76919,7 +76996,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>773</v>
       </c>
@@ -76927,7 +77004,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>775</v>
       </c>
@@ -76935,63 +77012,63 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>777</v>
       </c>
       <c r="B154" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>779</v>
       </c>
       <c r="B155" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>781</v>
       </c>
       <c r="B156" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>783</v>
       </c>
       <c r="B157" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>785</v>
       </c>
       <c r="B158" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>787</v>
       </c>
       <c r="B159" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>789</v>
       </c>
       <c r="B160" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>791</v>
       </c>
@@ -76999,7 +77076,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>793</v>
       </c>
@@ -77007,7 +77084,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>795</v>
       </c>
@@ -77015,7 +77092,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>797</v>
       </c>
@@ -77028,7 +77105,7 @@
         <v>799</v>
       </c>
       <c r="B165" t="s">
-        <v>1361</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -77036,7 +77113,7 @@
         <v>801</v>
       </c>
       <c r="B166" t="s">
-        <v>1361</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -77044,7 +77121,7 @@
         <v>803</v>
       </c>
       <c r="B167" t="s">
-        <v>1361</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -77052,7 +77129,7 @@
         <v>805</v>
       </c>
       <c r="B168" t="s">
-        <v>1361</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -77060,7 +77137,7 @@
         <v>807</v>
       </c>
       <c r="B169" t="s">
-        <v>1361</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -77068,7 +77145,7 @@
         <v>809</v>
       </c>
       <c r="B170" t="s">
-        <v>1361</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -77076,7 +77153,7 @@
         <v>811</v>
       </c>
       <c r="B171" t="s">
-        <v>1361</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -77132,7 +77209,7 @@
         <v>825</v>
       </c>
       <c r="B178" t="s">
-        <v>1361</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -77140,7 +77217,7 @@
         <v>827</v>
       </c>
       <c r="B179" t="s">
-        <v>1361</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -77148,7 +77225,7 @@
         <v>829</v>
       </c>
       <c r="B180" t="s">
-        <v>1361</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -77156,7 +77233,7 @@
         <v>831</v>
       </c>
       <c r="B181" t="s">
-        <v>1361</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -77164,7 +77241,7 @@
         <v>833</v>
       </c>
       <c r="B182" t="s">
-        <v>1361</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -77172,7 +77249,7 @@
         <v>835</v>
       </c>
       <c r="B183" t="s">
-        <v>1361</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -77188,7 +77265,7 @@
         <v>839</v>
       </c>
       <c r="B185" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -77196,7 +77273,7 @@
         <v>841</v>
       </c>
       <c r="B186" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -77204,7 +77281,7 @@
         <v>843</v>
       </c>
       <c r="B187" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -77212,7 +77289,7 @@
         <v>845</v>
       </c>
       <c r="B188" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -77220,7 +77297,7 @@
         <v>847</v>
       </c>
       <c r="B189" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -77228,7 +77305,7 @@
         <v>849</v>
       </c>
       <c r="B190" t="s">
-        <v>1361</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -77236,7 +77313,7 @@
         <v>851</v>
       </c>
       <c r="B191" t="s">
-        <v>1361</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -77244,7 +77321,7 @@
         <v>853</v>
       </c>
       <c r="B192" t="s">
-        <v>1361</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -77252,7 +77329,7 @@
         <v>855</v>
       </c>
       <c r="B193" t="s">
-        <v>1361</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -77260,7 +77337,7 @@
         <v>857</v>
       </c>
       <c r="B194" t="s">
-        <v>1361</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -77268,7 +77345,7 @@
         <v>859</v>
       </c>
       <c r="B195" t="s">
-        <v>1361</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -77276,7 +77353,7 @@
         <v>861</v>
       </c>
       <c r="B196" t="s">
-        <v>1361</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -77284,7 +77361,7 @@
         <v>863</v>
       </c>
       <c r="B197" t="s">
-        <v>1361</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -77292,7 +77369,7 @@
         <v>865</v>
       </c>
       <c r="B198" t="s">
-        <v>1361</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -77300,7 +77377,7 @@
         <v>867</v>
       </c>
       <c r="B199" t="s">
-        <v>1361</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -77308,7 +77385,7 @@
         <v>869</v>
       </c>
       <c r="B200" t="s">
-        <v>1361</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -77316,7 +77393,7 @@
         <v>871</v>
       </c>
       <c r="B201" t="s">
-        <v>1361</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -77324,7 +77401,7 @@
         <v>873</v>
       </c>
       <c r="B202" t="s">
-        <v>1361</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -77332,7 +77409,7 @@
         <v>875</v>
       </c>
       <c r="B203" t="s">
-        <v>1361</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -77340,7 +77417,7 @@
         <v>877</v>
       </c>
       <c r="B204" t="s">
-        <v>1361</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -77356,7 +77433,7 @@
         <v>881</v>
       </c>
       <c r="B206" t="s">
-        <v>1361</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -77396,7 +77473,7 @@
         <v>891</v>
       </c>
       <c r="B211" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -77404,7 +77481,7 @@
         <v>893</v>
       </c>
       <c r="B212" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -77412,7 +77489,7 @@
         <v>895</v>
       </c>
       <c r="B213" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -77420,7 +77497,7 @@
         <v>897</v>
       </c>
       <c r="B214" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -77428,7 +77505,7 @@
         <v>899</v>
       </c>
       <c r="B215" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -77436,7 +77513,7 @@
         <v>901</v>
       </c>
       <c r="B216" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -77444,7 +77521,7 @@
         <v>903</v>
       </c>
       <c r="B217" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -77452,7 +77529,7 @@
         <v>905</v>
       </c>
       <c r="B218" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -77460,7 +77537,7 @@
         <v>907</v>
       </c>
       <c r="B219" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -77468,7 +77545,7 @@
         <v>909</v>
       </c>
       <c r="B220" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -77476,7 +77553,7 @@
         <v>911</v>
       </c>
       <c r="B221" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -77484,7 +77561,7 @@
         <v>913</v>
       </c>
       <c r="B222" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -77492,7 +77569,7 @@
         <v>915</v>
       </c>
       <c r="B223" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -77500,7 +77577,7 @@
         <v>917</v>
       </c>
       <c r="B224" t="s">
-        <v>1361</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -77508,10 +77585,10 @@
         <v>919</v>
       </c>
       <c r="B225" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>927</v>
       </c>
@@ -77519,7 +77596,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1269</v>
       </c>
@@ -77527,7 +77604,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1025</v>
       </c>
@@ -77535,7 +77612,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>923</v>
       </c>
@@ -77543,7 +77620,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>929</v>
       </c>
@@ -77551,7 +77628,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>931</v>
       </c>
@@ -77559,7 +77636,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>933</v>
       </c>
@@ -77567,7 +77644,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>935</v>
       </c>
@@ -77575,7 +77652,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>937</v>
       </c>
@@ -77583,7 +77660,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>939</v>
       </c>
@@ -77591,7 +77668,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>941</v>
       </c>
@@ -77599,7 +77676,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>943</v>
       </c>
@@ -77607,7 +77684,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>945</v>
       </c>
@@ -77615,7 +77692,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>947</v>
       </c>
@@ -77623,7 +77700,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>949</v>
       </c>
@@ -77631,7 +77708,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>951</v>
       </c>
@@ -77639,7 +77716,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>953</v>
       </c>
@@ -77647,7 +77724,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>955</v>
       </c>
@@ -77655,7 +77732,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>957</v>
       </c>
@@ -77663,7 +77740,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>959</v>
       </c>
@@ -77671,127 +77748,127 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>961</v>
       </c>
       <c r="B246" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>963</v>
       </c>
       <c r="B247" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>965</v>
       </c>
       <c r="B248" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>967</v>
       </c>
       <c r="B249" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>969</v>
       </c>
       <c r="B250" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>971</v>
       </c>
       <c r="B251" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>973</v>
       </c>
       <c r="B252" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>975</v>
       </c>
       <c r="B253" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>977</v>
       </c>
       <c r="B254" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>979</v>
       </c>
       <c r="B255" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>981</v>
       </c>
       <c r="B256" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>983</v>
       </c>
       <c r="B257" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>985</v>
       </c>
       <c r="B258" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>987</v>
       </c>
       <c r="B259" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>989</v>
       </c>
       <c r="B260" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>991</v>
       </c>
@@ -77799,7 +77876,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>993</v>
       </c>
@@ -77807,7 +77884,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>995</v>
       </c>
@@ -77815,7 +77892,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>997</v>
       </c>
@@ -77823,7 +77900,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>999</v>
       </c>
@@ -77831,7 +77908,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1001</v>
       </c>
@@ -77839,7 +77916,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1003</v>
       </c>
@@ -77847,7 +77924,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1005</v>
       </c>
@@ -77863,23 +77940,23 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1009</v>
       </c>
       <c r="B270" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1011</v>
       </c>
       <c r="B271" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1013</v>
       </c>
@@ -77887,23 +77964,23 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1015</v>
       </c>
       <c r="B273" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1017</v>
       </c>
       <c r="B274" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1019</v>
       </c>
@@ -77911,15 +77988,15 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1021</v>
       </c>
       <c r="B276" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1023</v>
       </c>
@@ -77927,7 +78004,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1105</v>
       </c>
@@ -77935,7 +78012,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1027</v>
       </c>
@@ -77943,23 +78020,23 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1029</v>
       </c>
       <c r="B280" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1031</v>
       </c>
       <c r="B281" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1033</v>
       </c>
@@ -77967,15 +78044,15 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1035</v>
       </c>
       <c r="B283" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1037</v>
       </c>
@@ -77988,18 +78065,18 @@
         <v>1039</v>
       </c>
       <c r="B285" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1041</v>
       </c>
       <c r="B286" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1043</v>
       </c>
@@ -78007,7 +78084,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1045</v>
       </c>
@@ -78015,7 +78092,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1047</v>
       </c>
@@ -78028,7 +78105,7 @@
         <v>1049</v>
       </c>
       <c r="B290" t="s">
-        <v>1361</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -78036,7 +78113,7 @@
         <v>1051</v>
       </c>
       <c r="B291" t="s">
-        <v>1361</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -78044,10 +78121,10 @@
         <v>1053</v>
       </c>
       <c r="B292" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1055</v>
       </c>
@@ -78055,23 +78132,23 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1057</v>
       </c>
       <c r="B294" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1059</v>
       </c>
       <c r="B295" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1061</v>
       </c>
@@ -78079,7 +78156,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1063</v>
       </c>
@@ -78087,15 +78164,15 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1065</v>
       </c>
       <c r="B298" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1067</v>
       </c>
@@ -78103,28 +78180,28 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1069</v>
       </c>
       <c r="B300" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1071</v>
       </c>
       <c r="B301" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1073</v>
       </c>
       <c r="B302" t="s">
-        <v>1360</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -78132,15 +78209,15 @@
         <v>1075</v>
       </c>
       <c r="B303" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1077</v>
       </c>
       <c r="B304" t="s">
-        <v>1360</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -78148,10 +78225,10 @@
         <v>1079</v>
       </c>
       <c r="B305" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1081</v>
       </c>
@@ -78159,7 +78236,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1083</v>
       </c>
@@ -78167,20 +78244,20 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1085</v>
       </c>
       <c r="B308" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1087</v>
       </c>
       <c r="B309" t="s">
-        <v>1362</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -78188,18 +78265,18 @@
         <v>1089</v>
       </c>
       <c r="B310" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1091</v>
       </c>
       <c r="B311" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1093</v>
       </c>
@@ -78207,7 +78284,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1095</v>
       </c>
@@ -78215,15 +78292,15 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1097</v>
       </c>
       <c r="B314" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1099</v>
       </c>
@@ -78231,7 +78308,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1101</v>
       </c>
@@ -78239,15 +78316,15 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1103</v>
       </c>
       <c r="B317" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1259</v>
       </c>
@@ -78255,15 +78332,15 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1107</v>
       </c>
       <c r="B319" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1109</v>
       </c>
@@ -78276,18 +78353,18 @@
         <v>1111</v>
       </c>
       <c r="B321" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1113</v>
       </c>
       <c r="B322" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1115</v>
       </c>
@@ -78300,10 +78377,10 @@
         <v>1117</v>
       </c>
       <c r="B324" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1119</v>
       </c>
@@ -78311,15 +78388,15 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1121</v>
       </c>
       <c r="B326" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1123</v>
       </c>
@@ -78327,7 +78404,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1125</v>
       </c>
@@ -78340,26 +78417,26 @@
         <v>1127</v>
       </c>
       <c r="B329" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1129</v>
       </c>
       <c r="B330" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1131</v>
       </c>
       <c r="B331" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1133</v>
       </c>
@@ -78372,7 +78449,7 @@
         <v>1135</v>
       </c>
       <c r="B333" t="s">
-        <v>1361</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -78380,10 +78457,10 @@
         <v>1137</v>
       </c>
       <c r="B334" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1139</v>
       </c>
@@ -78391,15 +78468,15 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1141</v>
       </c>
       <c r="B336" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1143</v>
       </c>
@@ -78407,7 +78484,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1145</v>
       </c>
@@ -78420,7 +78497,7 @@
         <v>1147</v>
       </c>
       <c r="B339" t="s">
-        <v>1361</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -78431,7 +78508,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1151</v>
       </c>
@@ -78439,7 +78516,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1153</v>
       </c>
@@ -78447,15 +78524,15 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1155</v>
       </c>
       <c r="B343" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1157</v>
       </c>
@@ -78463,7 +78540,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1159</v>
       </c>
@@ -78471,7 +78548,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1161</v>
       </c>
@@ -78479,7 +78556,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1163</v>
       </c>
@@ -78487,15 +78564,15 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1165</v>
       </c>
       <c r="B348" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1167</v>
       </c>
@@ -78503,7 +78580,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1169</v>
       </c>
@@ -78511,15 +78588,15 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1171</v>
       </c>
       <c r="B351" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1173</v>
       </c>
@@ -78527,7 +78604,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1175</v>
       </c>
@@ -78535,7 +78612,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1177</v>
       </c>
@@ -78543,15 +78620,15 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1179</v>
       </c>
       <c r="B355" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1181</v>
       </c>
@@ -78559,7 +78636,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1183</v>
       </c>
@@ -78572,10 +78649,10 @@
         <v>1185</v>
       </c>
       <c r="B358" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1187</v>
       </c>
@@ -78583,7 +78660,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1189</v>
       </c>
@@ -78591,12 +78668,12 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1191</v>
       </c>
       <c r="B361" t="s">
-        <v>1360</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -78604,7 +78681,7 @@
         <v>1193</v>
       </c>
       <c r="B362" t="s">
-        <v>1361</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -78612,10 +78689,10 @@
         <v>1195</v>
       </c>
       <c r="B363" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1197</v>
       </c>
@@ -78623,7 +78700,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1199</v>
       </c>
@@ -78631,7 +78708,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1201</v>
       </c>
@@ -78644,10 +78721,10 @@
         <v>1203</v>
       </c>
       <c r="B367" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1205</v>
       </c>
@@ -78655,15 +78732,15 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1207</v>
       </c>
       <c r="B369" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1209</v>
       </c>
@@ -78671,12 +78748,12 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1211</v>
       </c>
       <c r="B371" t="s">
-        <v>1362</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -78684,7 +78761,7 @@
         <v>1213</v>
       </c>
       <c r="B372" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -78692,7 +78769,7 @@
         <v>1215</v>
       </c>
       <c r="B373" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -78700,7 +78777,7 @@
         <v>1217</v>
       </c>
       <c r="B374" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -78708,10 +78785,10 @@
         <v>1219</v>
       </c>
       <c r="B375" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1221</v>
       </c>
@@ -78719,7 +78796,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1223</v>
       </c>
@@ -78727,7 +78804,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1225</v>
       </c>
@@ -78735,7 +78812,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>925</v>
       </c>
@@ -78748,7 +78825,7 @@
         <v>1229</v>
       </c>
       <c r="B380" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -78756,7 +78833,7 @@
         <v>1231</v>
       </c>
       <c r="B381" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -78764,10 +78841,10 @@
         <v>1233</v>
       </c>
       <c r="B382" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1235</v>
       </c>
@@ -78775,7 +78852,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1237</v>
       </c>
@@ -78783,36 +78860,36 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1239</v>
       </c>
       <c r="B385" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1241</v>
       </c>
       <c r="B386" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1243</v>
       </c>
       <c r="B387" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1245</v>
       </c>
       <c r="B388" t="s">
-        <v>1360</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -78820,7 +78897,7 @@
         <v>1247</v>
       </c>
       <c r="B389" t="s">
-        <v>1361</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -78828,7 +78905,7 @@
         <v>1249</v>
       </c>
       <c r="B390" t="s">
-        <v>1361</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -78836,10 +78913,10 @@
         <v>1251</v>
       </c>
       <c r="B391" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1253</v>
       </c>
@@ -78847,7 +78924,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1255</v>
       </c>
@@ -78860,10 +78937,10 @@
         <v>1257</v>
       </c>
       <c r="B394" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>921</v>
       </c>
@@ -78871,7 +78948,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1261</v>
       </c>
@@ -78879,7 +78956,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1263</v>
       </c>
@@ -78887,15 +78964,15 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1265</v>
       </c>
       <c r="B398" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1267</v>
       </c>
@@ -78903,7 +78980,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1227</v>
       </c>
@@ -78911,7 +78988,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1271</v>
       </c>
@@ -78919,39 +78996,39 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1273</v>
       </c>
       <c r="B402" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1275</v>
       </c>
       <c r="B403" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1277</v>
       </c>
       <c r="B404" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1279</v>
       </c>
       <c r="B405" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1281</v>
       </c>
@@ -78959,7 +79036,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1283</v>
       </c>
@@ -78967,7 +79044,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1285</v>
       </c>
@@ -78975,7 +79052,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1287</v>
       </c>
@@ -78983,7 +79060,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1289</v>
       </c>
@@ -78991,7 +79068,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1291</v>
       </c>
@@ -78999,7 +79076,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1293</v>
       </c>
@@ -79007,7 +79084,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1295</v>
       </c>
@@ -79015,7 +79092,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1297</v>
       </c>
@@ -79028,7 +79105,7 @@
         <v>1299</v>
       </c>
       <c r="B415" t="s">
-        <v>1361</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -79036,7 +79113,7 @@
         <v>1301</v>
       </c>
       <c r="B416" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -79044,7 +79121,7 @@
         <v>1303</v>
       </c>
       <c r="B417" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -79052,98 +79129,98 @@
         <v>1305</v>
       </c>
       <c r="B418" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1307</v>
       </c>
       <c r="B419" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1309</v>
       </c>
       <c r="B420" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1311</v>
       </c>
       <c r="B421" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1313</v>
       </c>
       <c r="B422" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1315</v>
       </c>
       <c r="B423" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1317</v>
       </c>
       <c r="B424" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1319</v>
       </c>
       <c r="B425" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1321</v>
       </c>
       <c r="B426" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1323</v>
       </c>
       <c r="B427" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1325</v>
       </c>
       <c r="B428" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1327</v>
       </c>
       <c r="B429" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1329</v>
       </c>
@@ -79151,7 +79228,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1331</v>
       </c>
@@ -79159,7 +79236,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1333</v>
       </c>
@@ -79167,7 +79244,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1335</v>
       </c>
@@ -79175,7 +79252,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1337</v>
       </c>
@@ -79183,7 +79260,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1339</v>
       </c>
@@ -79191,7 +79268,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1341</v>
       </c>
@@ -79199,7 +79276,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1343</v>
       </c>
@@ -79207,7 +79284,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1345</v>
       </c>
@@ -79215,7 +79292,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1347</v>
       </c>
@@ -79223,7 +79300,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1349</v>
       </c>
@@ -79231,7 +79308,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1351</v>
       </c>
@@ -79240,10 +79317,1427 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B441" xr:uid="{527CE7E5-FE7A-400E-A979-1A4A69A5913C}">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E44EC0-BB18-4FB1-B019-CFA10F688846}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B175"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="91.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>239</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>241</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>247</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>249</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>253</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>255</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>257</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>259</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>263</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>265</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>267</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>269</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>271</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>273</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>275</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>277</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>279</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>281</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>283</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>285</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>287</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>289</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>291</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>293</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>295</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>297</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>299</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>301</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>303</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>305</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>307</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>309</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>311</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>313</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>315</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>319</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>321</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>323</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>325</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>327</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>329</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>331</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>333</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>335</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>337</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>339</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>341</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>343</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>345</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>347</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>349</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>351</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>353</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>355</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>357</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>359</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>361</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>363</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>365</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>367</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>369</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>371</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>373</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>375</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>377</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>379</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>381</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>383</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>385</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>387</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>389</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>391</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>393</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>395</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>397</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>399</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>401</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>403</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>405</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>407</v>
+      </c>
+      <c r="B140" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>409</v>
+      </c>
+      <c r="B141" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>411</v>
+      </c>
+      <c r="B142" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>413</v>
+      </c>
+      <c r="B143" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>415</v>
+      </c>
+      <c r="B144" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>417</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>419</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>421</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>423</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>425</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>427</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>429</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>431</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>433</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>435</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>437</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>439</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>441</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>443</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>445</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>447</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>449</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>451</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>453</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>455</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>457</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>459</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>461</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>462</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>463</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>464</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>465</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>466</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>467</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>469</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>471</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B175" xr:uid="{E1E44EC0-BB18-4FB1-B019-CFA10F688846}">
     <filterColumn colId="1">
       <filters>
-        <filter val="district police"/>
+        <filter val="other expenditure"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -79251,1447 +80745,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E44EC0-BB18-4FB1-B019-CFA10F688846}">
-  <dimension ref="A1:B175"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F4B16A-C1D1-423A-A48A-BD4EBDEBBCAD}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>175</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>189</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>193</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>197</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>205</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>207</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>211</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>213</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>215</v>
-      </c>
-      <c r="B41" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>217</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>219</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>221</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>223</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>225</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>227</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>228</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>229</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>230</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>231</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>235</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>237</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>239</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>241</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>243</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>245</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>247</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>249</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>251</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>253</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>255</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>257</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>259</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>261</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>263</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>265</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>267</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>269</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>271</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>273</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>275</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>277</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>279</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>281</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>283</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>285</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>287</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>289</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>291</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>293</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>295</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>297</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>299</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>301</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>303</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>305</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>307</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>309</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>311</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>313</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>315</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>317</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>319</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>321</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>323</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>325</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>327</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>329</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>331</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>333</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>335</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>337</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>339</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>341</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>343</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>345</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>347</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>349</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>351</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>353</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>355</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>357</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>359</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>361</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>363</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>365</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>367</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>369</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>371</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>373</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>375</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>377</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>379</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>381</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>383</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>385</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>387</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>389</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>391</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>393</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>395</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>397</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>399</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>401</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>403</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>405</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>407</v>
-      </c>
-      <c r="B140" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>409</v>
-      </c>
-      <c r="B141" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>411</v>
-      </c>
-      <c r="B142" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>413</v>
-      </c>
-      <c r="B143" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>415</v>
-      </c>
-      <c r="B144" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>417</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>419</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>421</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>423</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>425</v>
-      </c>
-      <c r="B149" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>427</v>
-      </c>
-      <c r="B150" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>429</v>
-      </c>
-      <c r="B151" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>431</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>433</v>
-      </c>
-      <c r="B153" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>435</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>437</v>
-      </c>
-      <c r="B155" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>439</v>
-      </c>
-      <c r="B156" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>441</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>443</v>
-      </c>
-      <c r="B158" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>445</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>447</v>
-      </c>
-      <c r="B160" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>449</v>
-      </c>
-      <c r="B161" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>451</v>
-      </c>
-      <c r="B162" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>453</v>
-      </c>
-      <c r="B163" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>455</v>
-      </c>
-      <c r="B164" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>457</v>
-      </c>
-      <c r="B165" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>459</v>
-      </c>
-      <c r="B166" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>461</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>462</v>
-      </c>
-      <c r="B168" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>463</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>464</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>465</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>466</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>467</v>
-      </c>
-      <c r="B173" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>469</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>471</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B175" xr:uid="{E1E44EC0-BB18-4FB1-B019-CFA10F688846}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F4B16A-C1D1-423A-A48A-BD4EBDEBBCAD}">
-  <dimension ref="A1:B71"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -80699,7 +80781,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -80707,7 +80789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -80715,7 +80797,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -80723,7 +80805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -80731,7 +80813,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -80739,7 +80821,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -80755,7 +80837,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -80763,7 +80845,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -80779,7 +80861,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -80787,7 +80869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -80795,7 +80877,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -80803,7 +80885,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -80811,7 +80893,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -80819,7 +80901,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -80827,7 +80909,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -80835,7 +80917,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -80843,7 +80925,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -80851,7 +80933,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -80899,7 +80981,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -80907,7 +80989,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -80915,7 +80997,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -80923,7 +81005,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -80931,7 +81013,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -80939,7 +81021,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -80971,7 +81053,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -80979,7 +81061,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -80987,7 +81069,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -81003,7 +81085,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -81011,7 +81093,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -81019,7 +81101,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -81027,7 +81109,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -81091,7 +81173,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -81099,7 +81181,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -81107,7 +81189,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -81115,7 +81197,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -81123,7 +81205,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -81131,7 +81213,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -81139,7 +81221,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -81147,7 +81229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -81163,7 +81245,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -81171,7 +81253,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -81187,7 +81269,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>135</v>
       </c>
@@ -81195,7 +81277,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>137</v>
       </c>
@@ -81211,7 +81293,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>140</v>
       </c>
@@ -81219,7 +81301,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>141</v>
       </c>
@@ -81227,7 +81309,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>142</v>
       </c>
@@ -81235,7 +81317,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -81244,6 +81326,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B71" xr:uid="{17F4B16A-C1D1-423A-A48A-BD4EBDEBBCAD}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="district jails"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -81252,9 +81341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29E2ADA-D2C4-4B21-B3D1-F085DEAD179F}">
   <dimension ref="A1:C685"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
